--- a/Lynxs_spot_size_analysis/GTR1 and GTR2 SpotSize_G315_z0_sigma_comparision_AllResults.xlsx
+++ b/Lynxs_spot_size_analysis/GTR1 and GTR2 SpotSize_G315_z0_sigma_comparision_AllResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johanrensfeldt/Library/Mobile Documents/com~apple~CloudDocs/Scandion/Lynxs_spot_size_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6B24260-D036-334E-A960-08F3A85E1996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E34AFA56-8B39-914A-BEA6-0A0BD64E791D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GTR1 G315 z0 x" sheetId="7" r:id="rId1"/>
@@ -2869,13 +2869,13 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>21168</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>122766</xdr:rowOff>
+      <xdr:rowOff>122765</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>619853</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>306940</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>155222</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>141767</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2898,8 +2898,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7916335" y="2408766"/>
-          <a:ext cx="2223756" cy="2243162"/>
+          <a:off x="9263946" y="2493432"/>
+          <a:ext cx="2984498" cy="2671891"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3248,7 +3248,7 @@
   <dimension ref="A1:BH58"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
-      <pane xSplit="5" ySplit="11" topLeftCell="Z12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="11" topLeftCell="F12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
       <selection pane="bottomRight" activeCell="AD7" sqref="AD7"/>
@@ -36245,7 +36245,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Q8" sqref="Q8"/>
+      <selection pane="topRight" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -39937,7 +39937,7 @@
         <v>-9.2128656861161229E-3</v>
       </c>
       <c r="G36" s="103">
-        <f t="shared" si="10"/>
+        <f>G13/$E13-1</f>
         <v>-2.860837239372882E-2</v>
       </c>
       <c r="H36" s="104">
